--- a/biology/Médecine/Institut_Ludwik_Hirszfeld/Institut_Ludwik_Hirszfeld.xlsx
+++ b/biology/Médecine/Institut_Ludwik_Hirszfeld/Institut_Ludwik_Hirszfeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'institut Ludwik Hirszfeld d'immunologie et de thérapie expérimentale (polonais Instytut Immunologii i Terapii Doświadczalnej im. Ludwika Hirszfelda, autrefois Institut de microbiologie médicale) est un centre de recherche situé à Wrocław, en Pologne, fondé en 1952 et dont le principal fondateur est le microbiologiste et immunologiste, Ludwik Hirszfeld[1]. C'est l'un des rares centres de recherche en Europe de l'Est, avec l'Institut George Eliava, à avoir développé le domaine de la phagothérapie dans la période des années 1920 - 1950[2].  Hirszfeld enseigna à l'institut de microbiologie médicale de Wrocław, puis, en 1945, il en devint le directeur et devint le doyen de la faculté de médecine. Jusqu'à sa mort, il a enseigné à cet institut maintenant affilié à l'Académie polonaise des sciences. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'institut Ludwik Hirszfeld d'immunologie et de thérapie expérimentale (polonais Instytut Immunologii i Terapii Doświadczalnej im. Ludwika Hirszfelda, autrefois Institut de microbiologie médicale) est un centre de recherche situé à Wrocław, en Pologne, fondé en 1952 et dont le principal fondateur est le microbiologiste et immunologiste, Ludwik Hirszfeld. C'est l'un des rares centres de recherche en Europe de l'Est, avec l'Institut George Eliava, à avoir développé le domaine de la phagothérapie dans la période des années 1920 - 1950.  Hirszfeld enseigna à l'institut de microbiologie médicale de Wrocław, puis, en 1945, il en devint le directeur et devint le doyen de la faculté de médecine. Jusqu'à sa mort, il a enseigné à cet institut maintenant affilié à l'Académie polonaise des sciences. 
 </t>
         </is>
       </c>
